--- a/Story/3 - Psyche Deepdive/8 - Feast of Flames/Feast of Flames.xlsx
+++ b/Story/3 - Psyche Deepdive/8 - Feast of Flames/Feast of Flames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\8 - Feast of Flames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9DBC8-F9CD-43CC-8620-6680AB00F81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E9ABC-1A83-4C9A-AD7B-2FEB9B53FCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{3BFA252E-F234-4158-8A13-C610F7381C8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3BFA252E-F234-4158-8A13-C610F7381C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Wanda Deepdive" sheetId="1" r:id="rId1"/>
@@ -15005,9 +15005,6 @@
     <t>燃える群宴</t>
   </si>
   <si>
-    <t>타오르는 군연</t>
-  </si>
-  <si>
     <t>Festin enflammé</t>
   </si>
   <si>
@@ -15050,9 +15047,6 @@
     <t>これは修道者と女王のストーリーです。\n彼らは異なる時空から来て、最後には一つになる運命です。</t>
   </si>
   <si>
-    <t>이것은 수사와 여왕의 스토리입니다.\n그들은 다른 시공간에서 왔지만, 마지막에는 한곳에 이르게 됩니다.</t>
-  </si>
-  <si>
     <t>C'est l'histoire d'un moine et d'une reine.\nIls viennent de différents temps et espaces, mais finissent par se retrouver</t>
   </si>
   <si>
@@ -15462,13 +15456,19 @@
   </si>
   <si>
     <t>Stage_36616_Name</t>
+  </si>
+  <si>
+    <t>불꽃의 향연</t>
+  </si>
+  <si>
+    <t>이것은 수도사와 여왕의 이야기이다.\n그들은 서로 다른 시공간에서 왔지만, 결국 한 곳에 모이게 될 것이다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15490,6 +15490,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -15515,10 +15521,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -15532,9 +15539,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{29DE3DE7-39B5-4783-9F9F-1BF3F99E5129}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15750,68 +15761,68 @@
   <dimension ref="A1:S404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>5032</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5034</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5035</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5036</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5037</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5038</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5039</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5040</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5041</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5042</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5043</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>5044</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>5045</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>5046</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>5047</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>5048</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>5049</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>5050</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>5051</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>5052</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15848,34 +15859,34 @@
       <c r="L2" t="s">
         <v>4984</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>5136</v>
+      </c>
+      <c r="N2" t="s">
         <v>4985</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>4986</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>4987</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>4988</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>4989</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>4990</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4991</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B3" t="s">
         <v>4992</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4993</v>
       </c>
       <c r="C3" t="s">
         <v>4977</v>
@@ -15887,51 +15898,51 @@
         <v>4978</v>
       </c>
       <c r="F3" t="s">
+        <v>4993</v>
+      </c>
+      <c r="H3" t="s">
         <v>4994</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4995</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>4996</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>4997</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>4998</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>5137</v>
+      </c>
+      <c r="N3" t="s">
         <v>4999</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>5000</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>5001</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>5002</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>5003</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>5004</v>
-      </c>
-      <c r="R3" t="s">
-        <v>5005</v>
-      </c>
-      <c r="S3" t="s">
-        <v>5006</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B4" t="s">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="C4" t="s">
         <v>4977</v>
@@ -15943,51 +15954,51 @@
         <v>4978</v>
       </c>
       <c r="F4" t="s">
+        <v>5007</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5008</v>
+      </c>
+      <c r="I4" t="s">
         <v>5009</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>5010</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>5011</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>5012</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="5" t="s">
         <v>5013</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>5014</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>5015</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>5016</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>5017</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>5018</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>5019</v>
-      </c>
-      <c r="R4" t="s">
-        <v>5020</v>
-      </c>
-      <c r="S4" t="s">
-        <v>5021</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5022</v>
+        <v>5020</v>
       </c>
       <c r="B5" t="s">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="C5" t="s">
         <v>4977</v>
@@ -16016,34 +16027,34 @@
       <c r="L5" t="s">
         <v>4984</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>5136</v>
+      </c>
+      <c r="N5" t="s">
         <v>4985</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>4986</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>4987</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>4988</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>4989</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>4990</v>
-      </c>
-      <c r="S5" t="s">
-        <v>4991</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="B6" t="s">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="C6" t="s">
         <v>4977</v>
@@ -16055,51 +16066,51 @@
         <v>4978</v>
       </c>
       <c r="F6" t="s">
+        <v>4993</v>
+      </c>
+      <c r="H6" t="s">
         <v>4994</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>4995</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>4996</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>4997</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>4998</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>5137</v>
+      </c>
+      <c r="N6" t="s">
         <v>4999</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>5000</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>5001</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>5002</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>5003</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>5004</v>
-      </c>
-      <c r="R6" t="s">
-        <v>5005</v>
-      </c>
-      <c r="S6" t="s">
-        <v>5006</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="B7" t="s">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="C7" t="s">
         <v>4977</v>
@@ -16111,51 +16122,51 @@
         <v>4978</v>
       </c>
       <c r="F7" t="s">
+        <v>5007</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5008</v>
+      </c>
+      <c r="I7" t="s">
         <v>5009</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>5010</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>5011</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>5012</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="5" t="s">
         <v>5013</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>5014</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>5015</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>5016</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>5017</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>5018</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>5019</v>
-      </c>
-      <c r="R7" t="s">
-        <v>5020</v>
-      </c>
-      <c r="S7" t="s">
-        <v>5021</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B8" t="s">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="C8" t="s">
         <v>4977</v>
@@ -16184,34 +16195,34 @@
       <c r="L8" t="s">
         <v>4984</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
+        <v>5136</v>
+      </c>
+      <c r="N8" t="s">
         <v>4985</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>4986</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>4987</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>4988</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>4989</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>4990</v>
-      </c>
-      <c r="S8" t="s">
-        <v>4991</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="B9" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="C9" t="s">
         <v>4977</v>
@@ -16223,51 +16234,51 @@
         <v>4978</v>
       </c>
       <c r="F9" t="s">
+        <v>4993</v>
+      </c>
+      <c r="H9" t="s">
         <v>4994</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>4995</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>4996</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>4997</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>4998</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>5137</v>
+      </c>
+      <c r="N9" t="s">
         <v>4999</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>5000</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>5001</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>5002</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>5003</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>5004</v>
-      </c>
-      <c r="R9" t="s">
-        <v>5005</v>
-      </c>
-      <c r="S9" t="s">
-        <v>5006</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="B10" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="C10" t="s">
         <v>4977</v>
@@ -16279,61 +16290,61 @@
         <v>4978</v>
       </c>
       <c r="F10" t="s">
+        <v>5007</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5008</v>
+      </c>
+      <c r="I10" t="s">
         <v>5009</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>5010</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>5011</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>5012</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="5" t="s">
         <v>5013</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>5014</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>5015</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>5016</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>5017</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>5018</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>5019</v>
-      </c>
-      <c r="R10" t="s">
-        <v>5020</v>
-      </c>
-      <c r="S10" t="s">
-        <v>5021</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C12" t="s">
         <v>5053</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5054</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5055</v>
       </c>
       <c r="D12">
         <v>1689</v>
       </c>
       <c r="E12" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F12" t="s">
         <v>4979</v>
@@ -16342,7 +16353,7 @@
         <v>4972</v>
       </c>
       <c r="I12" t="s">
-        <v>5057</v>
+        <v>5055</v>
       </c>
       <c r="J12" t="s">
         <v>4970</v>
@@ -16377,58 +16388,58 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5058</v>
+        <v>5056</v>
       </c>
       <c r="B13" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="C13" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D13">
         <v>1689</v>
       </c>
       <c r="E13" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F13" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H13" t="s">
+        <v>5058</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5059</v>
+      </c>
+      <c r="J13" t="s">
         <v>5060</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>5061</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>5062</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>5063</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>5064</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>5065</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>5066</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>5067</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>5068</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>5069</v>
-      </c>
-      <c r="R13" t="s">
-        <v>5070</v>
-      </c>
-      <c r="S13" t="s">
-        <v>5071</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21000,19 +21011,19 @@
     </row>
     <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="B94" t="s">
-        <v>5094</v>
+        <v>5092</v>
       </c>
       <c r="C94" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D94">
         <v>1690</v>
       </c>
       <c r="E94" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F94" t="s">
         <v>4979</v>
@@ -21056,75 +21067,75 @@
     </row>
     <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="B95" t="s">
-        <v>5092</v>
+        <v>5090</v>
       </c>
       <c r="C95" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D95">
         <v>1690</v>
       </c>
       <c r="E95" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F95" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H95" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="I95" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="J95" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="K95" t="s">
-        <v>5080</v>
+        <v>5078</v>
       </c>
       <c r="L95" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="M95" t="s">
-        <v>5078</v>
+        <v>5076</v>
       </c>
       <c r="N95" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="O95" t="s">
-        <v>5076</v>
+        <v>5074</v>
       </c>
       <c r="P95" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="Q95" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="R95" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="S95" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="B96" t="s">
-        <v>5090</v>
+        <v>5088</v>
       </c>
       <c r="C96" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D96">
         <v>1693</v>
       </c>
       <c r="E96" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F96" t="s">
         <v>4979</v>
@@ -21168,75 +21179,75 @@
     </row>
     <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="B97" t="s">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="C97" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D97">
         <v>1693</v>
       </c>
       <c r="E97" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F97" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H97" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="I97" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="J97" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="K97" t="s">
-        <v>5080</v>
+        <v>5078</v>
       </c>
       <c r="L97" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="M97" t="s">
-        <v>5078</v>
+        <v>5076</v>
       </c>
       <c r="N97" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="O97" t="s">
-        <v>5076</v>
+        <v>5074</v>
       </c>
       <c r="P97" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="Q97" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="R97" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="S97" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="B98" t="s">
-        <v>5086</v>
+        <v>5084</v>
       </c>
       <c r="C98" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D98">
         <v>1695</v>
       </c>
       <c r="E98" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F98" t="s">
         <v>4979</v>
@@ -21280,58 +21291,58 @@
     </row>
     <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="B99" t="s">
-        <v>5084</v>
+        <v>5082</v>
       </c>
       <c r="C99" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D99">
         <v>1695</v>
       </c>
       <c r="E99" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F99" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H99" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="I99" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="J99" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="K99" t="s">
-        <v>5080</v>
+        <v>5078</v>
       </c>
       <c r="L99" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="M99" t="s">
-        <v>5078</v>
+        <v>5076</v>
       </c>
       <c r="N99" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="O99" t="s">
-        <v>5076</v>
+        <v>5074</v>
       </c>
       <c r="P99" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="Q99" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="R99" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="S99" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26943,19 +26954,19 @@
     </row>
     <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>5112</v>
+        <v>5110</v>
       </c>
       <c r="B199" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="C199" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D199">
         <v>1691</v>
       </c>
       <c r="E199" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F199" t="s">
         <v>4979</v>
@@ -26964,7 +26975,7 @@
         <v>2661</v>
       </c>
       <c r="I199" t="s">
-        <v>5110</v>
+        <v>5108</v>
       </c>
       <c r="J199" t="s">
         <v>2659</v>
@@ -26999,58 +27010,58 @@
     </row>
     <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
       <c r="B200" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
       <c r="C200" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D200">
         <v>1691</v>
       </c>
       <c r="E200" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F200" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H200" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="I200" t="s">
-        <v>5106</v>
+        <v>5104</v>
       </c>
       <c r="J200" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="K200" t="s">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="L200" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="M200" t="s">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="N200" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="O200" t="s">
-        <v>5100</v>
+        <v>5098</v>
       </c>
       <c r="P200" t="s">
-        <v>5099</v>
+        <v>5097</v>
       </c>
       <c r="Q200" t="s">
-        <v>5098</v>
+        <v>5096</v>
       </c>
       <c r="R200" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="S200" t="s">
-        <v>5096</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="201" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32762,19 +32773,19 @@
     </row>
     <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="B300" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
       <c r="C300" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D300">
         <v>1692</v>
       </c>
       <c r="E300" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F300" t="s">
         <v>4979</v>
@@ -32783,7 +32794,7 @@
         <v>1329</v>
       </c>
       <c r="I300" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="J300" t="s">
         <v>1327</v>
@@ -32818,75 +32829,75 @@
     </row>
     <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
       <c r="B301" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="C301" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D301">
         <v>1692</v>
       </c>
       <c r="E301" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F301" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H301" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="I301" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="J301" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="K301" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="L301" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="M301" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="N301" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="O301" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="P301" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="Q301" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="R301" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="S301" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="B302" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
       <c r="C302" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D302">
         <v>1694</v>
       </c>
       <c r="E302" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F302" t="s">
         <v>4979</v>
@@ -32895,7 +32906,7 @@
         <v>1329</v>
       </c>
       <c r="I302" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="J302" t="s">
         <v>1327</v>
@@ -32930,75 +32941,75 @@
     </row>
     <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="B303" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="C303" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D303">
         <v>1694</v>
       </c>
       <c r="E303" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F303" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H303" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="I303" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="J303" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="K303" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="L303" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="M303" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="N303" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="O303" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="P303" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="Q303" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="R303" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="S303" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="B304" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="C304" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D304">
         <v>1696</v>
       </c>
       <c r="E304" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F304" t="s">
         <v>4979</v>
@@ -33007,7 +33018,7 @@
         <v>1329</v>
       </c>
       <c r="I304" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="J304" t="s">
         <v>1327</v>
@@ -33042,58 +33053,58 @@
     </row>
     <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="B305" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="C305" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="D305">
         <v>1696</v>
       </c>
       <c r="E305" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F305" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="H305" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="I305" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="J305" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="K305" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="L305" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="M305" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="N305" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="O305" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="P305" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="Q305" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="R305" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="S305" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="306" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
